--- a/GRAL.xlsx
+++ b/GRAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED8F42C-DBA6-4BFD-B488-1103890AB6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4835421-8B9A-40A7-9552-1955982BE369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26445" yWindow="555" windowWidth="26490" windowHeight="19650" activeTab="1" xr2:uid="{8C0804A9-C900-4A81-947D-A70B5E5E16FE}"/>
+    <workbookView xWindow="-31515" yWindow="1515" windowWidth="19845" windowHeight="16215" activeTab="1" xr2:uid="{8C0804A9-C900-4A81-947D-A70B5E5E16FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Price</t>
   </si>
@@ -127,6 +127,30 @@
   </si>
   <si>
     <t>Taxes</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>ONCA</t>
   </si>
 </sst>
 </file>
@@ -187,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -204,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -236,7 +263,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>30307</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -596,16 +623,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426C6A22-7EA8-4E40-85FC-BA184E266A78}">
-  <dimension ref="C2:L10"/>
+  <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
@@ -615,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -626,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -635,7 +662,7 @@
         <v>341.54062799999997</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -646,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -657,7 +684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -666,20 +693,26 @@
         <v>-617.30437200000006</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="2">
         <v>12274.286</v>
       </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="2">
         <v>9580.5759999999991</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -689,13 +722,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12536F8E-FCC3-44AB-BA66-1DB49A472020}">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -740,74 +773,74 @@
         <v>2022</v>
       </c>
       <c r="N2">
-        <f>+M2+1</f>
+        <f t="shared" ref="N2:Z2" si="0">+M2+1</f>
         <v>2023</v>
       </c>
       <c r="O2">
-        <f>+N2+1</f>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="P2">
-        <f>+O2+1</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="Q2">
-        <f>+P2+1</f>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="R2">
-        <f>+Q2+1</f>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="S2">
-        <f>+R2+1</f>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="T2">
-        <f>+S2+1</f>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="U2">
-        <f>+T2+1</f>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
       <c r="V2">
-        <f>+U2+1</f>
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
       <c r="W2">
-        <f>+V2+1</f>
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
       <c r="X2">
-        <f>+W2+1</f>
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
       <c r="Y2">
-        <f>+X2+1</f>
+        <f t="shared" si="0"/>
         <v>2034</v>
       </c>
       <c r="Z2">
-        <f>+Y2+1</f>
+        <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
         <v>20.027000000000001</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
         <v>28.055</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -916,19 +949,19 @@
         <v>100.41</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" ref="Q7:T7" si="0">+Q6*0.5</f>
+        <f t="shared" ref="Q7:T7" si="1">+Q6*0.5</f>
         <v>150.61500000000001</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>225.92250000000001</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>338.88375000000002</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>508.32562500000006</v>
       </c>
     </row>
@@ -953,27 +986,27 @@
         <v>18.984999999999999</v>
       </c>
       <c r="O8" s="4">
-        <f>+O6-O7</f>
+        <f t="shared" ref="O8:T8" si="2">+O6-O7</f>
         <v>66.94</v>
       </c>
       <c r="P8" s="4">
-        <f>+P6-P7</f>
+        <f t="shared" si="2"/>
         <v>100.41</v>
       </c>
       <c r="Q8" s="4">
-        <f>+Q6-Q7</f>
+        <f t="shared" si="2"/>
         <v>150.61500000000001</v>
       </c>
       <c r="R8" s="4">
-        <f>+R6-R7</f>
+        <f t="shared" si="2"/>
         <v>225.92250000000001</v>
       </c>
       <c r="S8" s="4">
-        <f>+S6-S7</f>
+        <f t="shared" si="2"/>
         <v>338.88375000000002</v>
       </c>
       <c r="T8" s="4">
-        <f>+T6-T7</f>
+        <f t="shared" si="2"/>
         <v>508.32562500000006</v>
       </c>
     </row>
@@ -1059,15 +1092,15 @@
         <v>94.195999999999998</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" ref="R10:T10" si="1">+Q10*0.5</f>
+        <f t="shared" ref="R10:T10" si="3">+Q10*0.5</f>
         <v>47.097999999999999</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23.548999999999999</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.7745</v>
       </c>
     </row>
@@ -1127,7 +1160,7 @@
         <v>180.089</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" ref="G12" si="2">SUM(G9:G11)</f>
+        <f t="shared" ref="G12" si="4">SUM(G9:G11)</f>
         <v>202.44299999999998</v>
       </c>
       <c r="H12" s="5">
@@ -1147,11 +1180,11 @@
         <v>794.77199999999993</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" ref="P12:Q12" si="3">SUM(P9:P11)</f>
+        <f t="shared" ref="P12:Q12" si="5">SUM(P9:P11)</f>
         <v>452.67059999999992</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>358.89926000000003</v>
       </c>
       <c r="R12" s="4">
@@ -1176,7 +1209,7 @@
         <v>-170.89500000000001</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" ref="G13" si="4">+G8-G12</f>
+        <f t="shared" ref="G13" si="6">+G8-G12</f>
         <v>-202.44299999999998</v>
       </c>
       <c r="H13" s="5">
@@ -1192,27 +1225,27 @@
         <v>-155.45399999999998</v>
       </c>
       <c r="O13" s="4">
-        <f>+O8-O12</f>
+        <f t="shared" ref="O13:T13" si="7">+O8-O12</f>
         <v>-727.83199999999988</v>
       </c>
       <c r="P13" s="4">
-        <f>+P8-P12</f>
+        <f t="shared" si="7"/>
         <v>-352.26059999999995</v>
       </c>
       <c r="Q13" s="4">
-        <f>+Q8-Q12</f>
+        <f t="shared" si="7"/>
         <v>-208.28426000000002</v>
       </c>
       <c r="R13" s="4">
-        <f>+R8-R12</f>
+        <f t="shared" si="7"/>
         <v>-88.946205999999961</v>
       </c>
       <c r="S13" s="4">
-        <f>+S8-S12</f>
+        <f t="shared" si="7"/>
         <v>31.31826940000002</v>
       </c>
       <c r="T13" s="4">
-        <f>+T8-T12</f>
+        <f t="shared" si="7"/>
         <v>194.66429234000003</v>
       </c>
     </row>
@@ -1285,40 +1318,145 @@
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="5">
-        <v>959</v>
+      <c r="H19" s="10">
+        <f>959+3.918</f>
+        <v>962.91800000000001</v>
       </c>
       <c r="I19" s="5">
         <f>+H19+I13</f>
-        <v>800.54600000000005</v>
+        <v>804.46400000000006</v>
       </c>
       <c r="J19" s="5">
         <f>+I19+J13</f>
-        <v>645.0920000000001</v>
+        <v>649.0100000000001</v>
       </c>
       <c r="O19" s="4">
         <f>+J19</f>
-        <v>645.0920000000001</v>
+        <v>649.0100000000001</v>
       </c>
       <c r="P19" s="4">
         <f>+O19+P13</f>
-        <v>292.83140000000014</v>
+        <v>296.74940000000015</v>
       </c>
       <c r="Q19" s="4">
         <f>+P19+Q13</f>
-        <v>84.547140000000127</v>
+        <v>88.465140000000133</v>
       </c>
       <c r="R19" s="4">
         <f>+Q19+R13</f>
-        <v>-4.3990659999998343</v>
+        <v>-0.48106599999982791</v>
       </c>
       <c r="S19" s="4">
         <f>+R19+S13</f>
-        <v>26.919203400000185</v>
+        <v>30.837203400000192</v>
       </c>
       <c r="T19" s="4">
         <f>+S19+T13</f>
-        <v>221.58349574000022</v>
+        <v>225.50149574000022</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="10">
+        <f>13.374+0.032</f>
+        <v>13.406000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="10">
+        <f>18.196+7.31</f>
+        <v>25.506</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="10">
+        <f>20.866+0.059</f>
+        <v>20.925000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="10">
+        <f>74.984+3.021</f>
+        <v>78.004999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="10">
+        <v>74.503</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="10">
+        <v>8.4760000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2086.056</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="10">
+        <f>SUM(H19:H26)</f>
+        <v>3269.7950000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H29" s="3">
+        <v>16.247</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H30" s="3">
+        <v>56.5473</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H31" s="3">
+        <v>13.945</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H32" s="3">
+        <v>1.413</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H33" s="3">
+        <v>62.164999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H34" s="3">
+        <v>422.16300000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="3">
+        <v>2.0070000000000001</v>
       </c>
     </row>
   </sheetData>
